--- a/docs/Tabela de Custos.xlsx
+++ b/docs/Tabela de Custos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">QTDE PESSOAS</t>
   </si>
@@ -27,7 +27,7 @@
     <t>DIVISAS</t>
   </si>
   <si>
-    <t xml:space="preserve">CUSTO_MOTORISTA (R$/km)</t>
+    <t xml:space="preserve">DIARIA MOTORISTA</t>
   </si>
   <si>
     <t>TAXA</t>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t xml:space="preserve">PREÇO ONIBUS</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antes do selo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depois do selo</t>
   </si>
 </sst>
 </file>
@@ -63,12 +72,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,10 +98,14 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,8 +613,13 @@
     <col bestFit="1" min="1" max="1" width="13.28125"/>
     <col bestFit="1" min="2" max="2" width="13.62109375"/>
     <col bestFit="1" min="4" max="4" width="25.51171875"/>
-    <col bestFit="1" min="5" max="5" width="5.40234375"/>
+    <col bestFit="1" min="5" max="5" width="10.65234375"/>
     <col bestFit="1" min="6" max="6" width="21.62109375"/>
+    <col bestFit="1" min="7" max="7" width="13.40234375"/>
+    <col bestFit="1" min="8" max="8" width="13.171875"/>
+    <col bestFit="1" min="9" max="9" width="12.94140625"/>
+    <col bestFit="1" min="10" max="10" width="13.62109375"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="13.171875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -617,61 +641,98 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>250</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <f>A2/4</f>
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <f>QUOTIENT(A2,F2)</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>G2*D2</f>
+        <v>1500</v>
+      </c>
+      <c r="J2" s="1">
+        <f>E2*C2+H2*D2</f>
+        <v>3500</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="4">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="1">
+        <v>250</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500</v>
+      </c>
+      <c r="F3" s="4">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <f>A3/4</f>
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <f>QUOTIENT(A3,F3)</f>
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="I3" s="1">
+        <f>G3*D3</f>
+        <v>1500</v>
+      </c>
+      <c r="J3" s="1">
+        <f>E3*C3+H3*D3</f>
         <v>1000</v>
       </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="1">
-        <f>A2/4</f>
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <f>A2/F2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="2">
-        <f>A5*D2*B2</f>
-        <v>200</v>
-      </c>
-      <c r="B8" s="2">
-        <f>E2+B5*B2</f>
-        <v>1010</v>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
